--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value519.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value519.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.367053054835832</v>
+        <v>1.266759872436523</v>
       </c>
       <c r="B1">
-        <v>2.198820835694775</v>
+        <v>2.494807720184326</v>
       </c>
       <c r="C1">
-        <v>2.307405678057682</v>
+        <v>3.584692001342773</v>
       </c>
       <c r="D1">
-        <v>2.227669093758271</v>
+        <v>2.961567640304565</v>
       </c>
       <c r="E1">
-        <v>0.6754125414934492</v>
+        <v>1.071389675140381</v>
       </c>
     </row>
   </sheetData>
